--- a/biology/Médecine/Joseph_Okinczyc/Joseph_Okinczyc.xlsx
+++ b/biology/Médecine/Joseph_Okinczyc/Joseph_Okinczyc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Okinczyc[1] est un chirurgien français, né à Villepreux (Yvelines) le 24 février 1879, mort le 29 septembre 1952 à Saint-Chamassy (Dordogne), fils du Docteur Alexandre Okinczyc.
-Professeur agrégé de la faculté de médecine de Paris, membre de l'Académie Nationale de Chirurgie[2], il y est décrit par son collègue Jacques Mialaret comme "un chirurgien à la foi chevillée à l'âme"[3].
-Sa conférence faite à la Société des amis de Laennec[4] le 20 octobre 1923 sur "L'Ordre des médecins et le code de déontologie médicale" résume toutes les interventions sur ce sujet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Okinczyc est un chirurgien français, né à Villepreux (Yvelines) le 24 février 1879, mort le 29 septembre 1952 à Saint-Chamassy (Dordogne), fils du Docteur Alexandre Okinczyc.
+Professeur agrégé de la faculté de médecine de Paris, membre de l'Académie Nationale de Chirurgie, il y est décrit par son collègue Jacques Mialaret comme "un chirurgien à la foi chevillée à l'âme".
+Sa conférence faite à la Société des amis de Laennec le 20 octobre 1923 sur "L'Ordre des médecins et le code de déontologie médicale" résume toutes les interventions sur ce sujet.
 En 1936, il vit avec son épouse Marie à Paris, au 6 rue de seine. Il est mort à Saint-Chamassy, à l'âge de 73 ans. 
 </t>
         </is>
